--- a/NYSE_profit_재생에너지.xlsx
+++ b/NYSE_profit_재생에너지.xlsx
@@ -22,19 +22,19 @@
     <t>JKS</t>
   </si>
   <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>NOVA</t>
+  </si>
+  <si>
+    <t>HLGN</t>
+  </si>
+  <si>
     <t>REX</t>
   </si>
   <si>
-    <t>NOVA</t>
-  </si>
-  <si>
-    <t>FF</t>
-  </si>
-  <si>
     <t>AMRC</t>
-  </si>
-  <si>
-    <t>HLGN</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>39.36613347336464</v>
+        <v>18.87999725341797</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.4099989236539</v>
+        <v>12.86000061035156</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -424,7 +424,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-5.526149980199602</v>
+        <v>-0.4798364639282227</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-6.401980310671607</v>
+        <v>-1.289999008178711</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-6.573249346277555</v>
+        <v>-3.679999828338623</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -448,7 +448,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-31.95330549306906</v>
+        <v>-5.220001220703125</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -456,7 +456,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-65.01766656444717</v>
+        <v>-20.52999877929688</v>
       </c>
     </row>
   </sheetData>
